--- a/DFT Calculations/gp_start_folder_empty/pyrd_properties_postprocessed_for_pyrd1_to_pyrd18.xlsx
+++ b/DFT Calculations/gp_start_folder_empty/pyrd_properties_postprocessed_for_pyrd1_to_pyrd18.xlsx
@@ -1583,8 +1583,7 @@
     <col min="22" max="22" width="24.7109375" customWidth="1"/>
     <col min="23" max="23" width="21.7109375" customWidth="1"/>
     <col min="24" max="24" width="19.7109375" customWidth="1"/>
-    <col min="25" max="25" width="21.7109375" customWidth="1"/>
-    <col min="26" max="28" width="22.7109375" customWidth="1"/>
+    <col min="25" max="28" width="22.7109375" customWidth="1"/>
     <col min="29" max="29" width="18.7109375" customWidth="1"/>
     <col min="30" max="31" width="19.7109375" customWidth="1"/>
     <col min="32" max="32" width="21.7109375" customWidth="1"/>
@@ -1845,7 +1844,7 @@
         <v>471.1024761564533</v>
       </c>
       <c r="Y2">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="Z2">
         <v>-0.6436500000000001</v>
@@ -1973,7 +1972,7 @@
         <v>471.1024761564533</v>
       </c>
       <c r="Y3">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="Z3">
         <v>-0.6436500000000001</v>
@@ -2229,7 +2228,7 @@
         <v>471.1024761564533</v>
       </c>
       <c r="Y5">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="Z5">
         <v>-0.6436500000000001</v>
@@ -2357,7 +2356,7 @@
         <v>471.1024761564533</v>
       </c>
       <c r="Y6">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="Z6">
         <v>-0.6436500000000001</v>
@@ -2649,7 +2648,7 @@
         <v>471.1024761564533</v>
       </c>
       <c r="Y8">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="Z8">
         <v>-0.6436500000000001</v>
@@ -2813,7 +2812,7 @@
         <v>471.1024761564533</v>
       </c>
       <c r="Y9">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="Z9">
         <v>-0.6436500000000001</v>
@@ -2977,7 +2976,7 @@
         <v>470.2148987279571</v>
       </c>
       <c r="Y10">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="Z10">
         <v>-0.6278</v>
@@ -3049,13 +3048,13 @@
         <v>4.320339031660922</v>
       </c>
       <c r="AW10">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="AX10">
         <v>0.8180933906587335</v>
       </c>
       <c r="AY10">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="AZ10">
         <v>4.125479331190739E-05</v>
@@ -3105,7 +3104,7 @@
         <v>470.2148987279571</v>
       </c>
       <c r="Y11">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="Z11">
         <v>-0.6278</v>
@@ -3177,13 +3176,13 @@
         <v>4.320339031660922</v>
       </c>
       <c r="AW11">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="AX11">
         <v>0.8180933906587335</v>
       </c>
       <c r="AY11">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="AZ11">
         <v>4.125479331190739E-05</v>
@@ -3361,7 +3360,7 @@
         <v>470.2148987279571</v>
       </c>
       <c r="Y13">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="Z13">
         <v>-0.6278</v>
@@ -3433,13 +3432,13 @@
         <v>4.320339031660922</v>
       </c>
       <c r="AW13">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="AX13">
         <v>0.8180933906587335</v>
       </c>
       <c r="AY13">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="AZ13">
         <v>4.125479331190739E-05</v>
@@ -3489,7 +3488,7 @@
         <v>470.2148987279571</v>
       </c>
       <c r="Y14">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="Z14">
         <v>-0.6278</v>
@@ -3561,13 +3560,13 @@
         <v>4.320339031660922</v>
       </c>
       <c r="AW14">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="AX14">
         <v>0.8180933906587335</v>
       </c>
       <c r="AY14">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="AZ14">
         <v>4.125479331190739E-05</v>
@@ -3781,7 +3780,7 @@
         <v>470.2148987279571</v>
       </c>
       <c r="Y16">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="Z16">
         <v>-0.6278</v>
@@ -3853,13 +3852,13 @@
         <v>4.320339031660922</v>
       </c>
       <c r="AW16">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="AX16">
         <v>0.8180933906587335</v>
       </c>
       <c r="AY16">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="AZ16">
         <v>4.125479331190739E-05</v>
@@ -3945,7 +3944,7 @@
         <v>470.2148987279571</v>
       </c>
       <c r="Y17">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="Z17">
         <v>-0.6278</v>
@@ -4017,13 +4016,13 @@
         <v>4.320339031660922</v>
       </c>
       <c r="AW17">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="AX17">
         <v>0.8180933906587335</v>
       </c>
       <c r="AY17">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="AZ17">
         <v>4.125479331190739E-05</v>
@@ -5223,7 +5222,7 @@
         <v>464.1656994814472</v>
       </c>
       <c r="Y26">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="Z26">
         <v>-0.6524</v>
@@ -5351,7 +5350,7 @@
         <v>464.1656994814472</v>
       </c>
       <c r="Y27">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="Z27">
         <v>-0.6524</v>
@@ -5607,7 +5606,7 @@
         <v>464.1656994814472</v>
       </c>
       <c r="Y29">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="Z29">
         <v>-0.6524</v>
@@ -5735,7 +5734,7 @@
         <v>464.1656994814472</v>
       </c>
       <c r="Y30">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="Z30">
         <v>-0.6524</v>
@@ -6027,7 +6026,7 @@
         <v>464.1656994814472</v>
       </c>
       <c r="Y32">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="Z32">
         <v>-0.6524</v>
@@ -6191,7 +6190,7 @@
         <v>464.1656994814472</v>
       </c>
       <c r="Y33">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="Z33">
         <v>-0.6524</v>
@@ -7487,7 +7486,7 @@
         <v>463.3070130704092</v>
       </c>
       <c r="Y42">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="Z42">
         <v>-0.63265</v>
@@ -7541,7 +7540,7 @@
         <v>49.89836136800944</v>
       </c>
       <c r="AQ42">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="AR42">
         <v>1.888818053213638</v>
@@ -7550,7 +7549,7 @@
         <v>5.719278550771907</v>
       </c>
       <c r="AT42">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="AU42">
         <v>1.888818053213638</v>
@@ -7612,7 +7611,7 @@
         <v>463.3070130704092</v>
       </c>
       <c r="Y43">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="Z43">
         <v>-0.63265</v>
@@ -7666,7 +7665,7 @@
         <v>49.89836136800944</v>
       </c>
       <c r="AQ43">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="AR43">
         <v>1.888818053213638</v>
@@ -7675,7 +7674,7 @@
         <v>5.719278550771907</v>
       </c>
       <c r="AT43">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="AU43">
         <v>1.888818053213638</v>
@@ -7868,7 +7867,7 @@
         <v>463.3070130704092</v>
       </c>
       <c r="Y45">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="Z45">
         <v>-0.63265</v>
@@ -7922,7 +7921,7 @@
         <v>49.89836136800944</v>
       </c>
       <c r="AQ45">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="AR45">
         <v>1.888818053213638</v>
@@ -7931,7 +7930,7 @@
         <v>5.719278550771907</v>
       </c>
       <c r="AT45">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="AU45">
         <v>1.888818053213638</v>
@@ -7993,7 +7992,7 @@
         <v>463.3070130704092</v>
       </c>
       <c r="Y46">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="Z46">
         <v>-0.63265</v>
@@ -8047,7 +8046,7 @@
         <v>49.89836136800944</v>
       </c>
       <c r="AQ46">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="AR46">
         <v>1.888818053213638</v>
@@ -8056,7 +8055,7 @@
         <v>5.719278550771907</v>
       </c>
       <c r="AT46">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="AU46">
         <v>1.888818053213638</v>
@@ -8279,7 +8278,7 @@
         <v>463.3070130704092</v>
       </c>
       <c r="Y48">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="Z48">
         <v>-0.63265</v>
@@ -8333,7 +8332,7 @@
         <v>49.89836136800944</v>
       </c>
       <c r="AQ48">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="AR48">
         <v>1.888818053213638</v>
@@ -8342,7 +8341,7 @@
         <v>5.719278550771907</v>
       </c>
       <c r="AT48">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="AU48">
         <v>1.888818053213638</v>
@@ -8440,7 +8439,7 @@
         <v>463.3070130704092</v>
       </c>
       <c r="Y49">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="Z49">
         <v>-0.63265</v>
@@ -8494,7 +8493,7 @@
         <v>49.89836136800944</v>
       </c>
       <c r="AQ49">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="AR49">
         <v>1.888818053213638</v>
@@ -8503,7 +8502,7 @@
         <v>5.719278550771907</v>
       </c>
       <c r="AT49">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="AU49">
         <v>1.888818053213638</v>
@@ -8673,7 +8672,7 @@
         <v>4.414053947725887</v>
       </c>
       <c r="AW50">
-        <v>6.214148878782978</v>
+        <v>6.214148878782982</v>
       </c>
       <c r="AX50">
         <v>0.8292867540075833</v>
@@ -8765,7 +8764,7 @@
         <v>520.6362926631053</v>
       </c>
       <c r="Y51">
-        <v>0.883275537494234</v>
+        <v>0.8832755374942342</v>
       </c>
       <c r="Z51">
         <v>-0.43091</v>
@@ -8843,7 +8842,7 @@
         <v>0.7926424381045658</v>
       </c>
       <c r="AY51">
-        <v>0.2170727045445173</v>
+        <v>0.2170727045446482</v>
       </c>
       <c r="AZ51">
         <v>0.03262968374534926</v>
@@ -8929,7 +8928,7 @@
         <v>520.7228733601006</v>
       </c>
       <c r="Y52">
-        <v>0.8831491365903076</v>
+        <v>0.8831491365903077</v>
       </c>
       <c r="Z52">
         <v>-0.4309</v>
@@ -9057,7 +9056,7 @@
         <v>520.2215488229587</v>
       </c>
       <c r="Y53">
-        <v>0.8828862319664385</v>
+        <v>0.8828862319664386</v>
       </c>
       <c r="Z53">
         <v>-0.4322167179468124</v>
@@ -9129,13 +9128,13 @@
         <v>4.444491769747753</v>
       </c>
       <c r="AW53">
-        <v>5.968305900175767</v>
+        <v>5.968305900175768</v>
       </c>
       <c r="AX53">
         <v>0.8052002664320415</v>
       </c>
       <c r="AY53">
-        <v>0.1427576575792919</v>
+        <v>0.142757657579335</v>
       </c>
       <c r="AZ53">
         <v>0.02145886879672677</v>
@@ -9185,7 +9184,7 @@
         <v>0.7776547988858237</v>
       </c>
       <c r="Y54">
-        <v>0.0005564512519408714</v>
+        <v>0.0005564512519409356</v>
       </c>
       <c r="Z54">
         <v>0.002223755926373206</v>
@@ -9257,13 +9256,13 @@
         <v>0.02693137199366033</v>
       </c>
       <c r="AW54">
-        <v>0.2175217501919892</v>
+        <v>0.2175217501919918</v>
       </c>
       <c r="AX54">
         <v>0.0213117131689615</v>
       </c>
       <c r="AY54">
-        <v>0.1262001936813264</v>
+        <v>0.1262001936813644</v>
       </c>
       <c r="AZ54">
         <v>0.01896999259461811</v>
@@ -9441,7 +9440,7 @@
         <v>520.7228733601006</v>
       </c>
       <c r="Y56">
-        <v>0.883275537494234</v>
+        <v>0.8832755374942342</v>
       </c>
       <c r="Z56">
         <v>-0.4309</v>
@@ -9513,7 +9512,7 @@
         <v>4.460395996525581</v>
       </c>
       <c r="AW56">
-        <v>6.214148878782978</v>
+        <v>6.214148878782982</v>
       </c>
       <c r="AX56">
         <v>0.8292867540075833</v>
@@ -9569,7 +9568,7 @@
         <v>1.378886529033025</v>
       </c>
       <c r="Y57">
-        <v>0.001014195813854535</v>
+        <v>0.001014195813854646</v>
       </c>
       <c r="Z57">
         <v>0.00383</v>
@@ -9641,7 +9640,7 @@
         <v>0.04634204879969417</v>
       </c>
       <c r="AW57">
-        <v>0.374279094953974</v>
+        <v>0.3742790949539785</v>
       </c>
       <c r="AX57">
         <v>0.03667078910189736</v>
@@ -9805,7 +9804,7 @@
         <v>4.414053947725887</v>
       </c>
       <c r="AW58">
-        <v>6.214148878782978</v>
+        <v>6.214148878782982</v>
       </c>
       <c r="AX58">
         <v>0.8292867540075833</v>
@@ -9969,7 +9968,7 @@
         <v>4.414053947725887</v>
       </c>
       <c r="AW59">
-        <v>6.214148878782978</v>
+        <v>6.214148878782982</v>
       </c>
       <c r="AX59">
         <v>0.8292867540075833</v>
@@ -10061,7 +10060,7 @@
         <v>519.4412770129063</v>
       </c>
       <c r="Y60">
-        <v>0.8864017617587303</v>
+        <v>0.8864017617587304</v>
       </c>
       <c r="Z60">
         <v>-0.41717</v>
@@ -10225,7 +10224,7 @@
         <v>516.8320086551948</v>
       </c>
       <c r="Y61">
-        <v>0.8873827020535928</v>
+        <v>0.887382702053593</v>
       </c>
       <c r="Z61">
         <v>-0.41974</v>
@@ -10353,7 +10352,7 @@
         <v>518.3280047186656</v>
       </c>
       <c r="Y62">
-        <v>0.8868202904429675</v>
+        <v>0.8868202904429676</v>
       </c>
       <c r="Z62">
         <v>-0.4182665180287963</v>
@@ -10481,7 +10480,7 @@
         <v>1.825075872261286</v>
       </c>
       <c r="Y63">
-        <v>0.0006861273808772429</v>
+        <v>0.0006861273808773205</v>
       </c>
       <c r="Z63">
         <v>0.001797609271522158</v>
@@ -10609,7 +10608,7 @@
         <v>516.8320086551948</v>
       </c>
       <c r="Y64">
-        <v>0.8864017617587303</v>
+        <v>0.8864017617587304</v>
       </c>
       <c r="Z64">
         <v>-0.41974</v>
@@ -10737,7 +10736,7 @@
         <v>519.4412770129063</v>
       </c>
       <c r="Y65">
-        <v>0.8873827020535928</v>
+        <v>0.887382702053593</v>
       </c>
       <c r="Z65">
         <v>-0.41717</v>
@@ -10865,7 +10864,7 @@
         <v>2.609268357711471</v>
       </c>
       <c r="Y66">
-        <v>0.000980940294862509</v>
+        <v>0.00098094029486262</v>
       </c>
       <c r="Z66">
         <v>0.002570000000000017</v>
@@ -11029,7 +11028,7 @@
         <v>519.4412770129063</v>
       </c>
       <c r="Y67">
-        <v>0.8864017617587303</v>
+        <v>0.8864017617587304</v>
       </c>
       <c r="Z67">
         <v>-0.41717</v>
@@ -11193,7 +11192,7 @@
         <v>516.8320086551948</v>
       </c>
       <c r="Y68">
-        <v>0.8873827020535928</v>
+        <v>0.887382702053593</v>
       </c>
       <c r="Z68">
         <v>-0.41974</v>
@@ -11357,7 +11356,7 @@
         <v>510.2118432714877</v>
       </c>
       <c r="Y69">
-        <v>0.898607208397676</v>
+        <v>0.8986072083976763</v>
       </c>
       <c r="Z69">
         <v>-0.43004</v>
@@ -11435,7 +11434,7 @@
         <v>0.7975432560152171</v>
       </c>
       <c r="AY69">
-        <v>0.1824562368405559</v>
+        <v>0.1824562368404001</v>
       </c>
       <c r="AZ69">
         <v>0.02744165292985997</v>
@@ -11649,7 +11648,7 @@
         <v>510.0738873174278</v>
       </c>
       <c r="Y71">
-        <v>0.897339988293042</v>
+        <v>0.8973399882930422</v>
       </c>
       <c r="Z71">
         <v>-0.431888333642485</v>
@@ -11727,7 +11726,7 @@
         <v>0.8114411002234549</v>
       </c>
       <c r="AY71">
-        <v>0.08929601561580063</v>
+        <v>0.08929601561572438</v>
       </c>
       <c r="AZ71">
         <v>0.01343023575581357</v>
@@ -11777,7 +11776,7 @@
         <v>0.1910100559529137</v>
       </c>
       <c r="Y72">
-        <v>0.001754558436714102</v>
+        <v>0.001754558436714259</v>
       </c>
       <c r="Z72">
         <v>0.002559152411191585</v>
@@ -11855,7 +11854,7 @@
         <v>0.01924257650153399</v>
       </c>
       <c r="AY72">
-        <v>0.1289871045434945</v>
+        <v>0.1289871045433843</v>
       </c>
       <c r="AZ72">
         <v>0.01939982653616745</v>
@@ -12033,7 +12032,7 @@
         <v>510.2118432714877</v>
       </c>
       <c r="Y74">
-        <v>0.898607208397676</v>
+        <v>0.8986072083976763</v>
       </c>
       <c r="Z74">
         <v>-0.43004</v>
@@ -12111,7 +12110,7 @@
         <v>0.8247624738433258</v>
       </c>
       <c r="AY74">
-        <v>0.1824562368405559</v>
+        <v>0.1824562368404001</v>
       </c>
       <c r="AZ74">
         <v>0.02744165292985997</v>
@@ -12161,7 +12160,7 @@
         <v>0.2701896141572888</v>
       </c>
       <c r="Y75">
-        <v>0.002481877012533107</v>
+        <v>0.002481877012533329</v>
       </c>
       <c r="Z75">
         <v>0.003620000000000012</v>
@@ -12239,7 +12238,7 @@
         <v>0.02721921782810865</v>
       </c>
       <c r="AY75">
-        <v>0.1824562368405559</v>
+        <v>0.1824562368404001</v>
       </c>
       <c r="AZ75">
         <v>0.027441652851081</v>
@@ -12489,7 +12488,7 @@
         <v>510.2118432714877</v>
       </c>
       <c r="Y77">
-        <v>0.898607208397676</v>
+        <v>0.8986072083976763</v>
       </c>
       <c r="Z77">
         <v>-0.43004</v>
@@ -12567,7 +12566,7 @@
         <v>0.7975432560152171</v>
       </c>
       <c r="AY77">
-        <v>0.1824562368405559</v>
+        <v>0.1824562368404001</v>
       </c>
       <c r="AZ77">
         <v>0.02744165292985997</v>
@@ -15245,7 +15244,7 @@
         <v>509.5770232025235</v>
       </c>
       <c r="Y96">
-        <v>0.8986201669828482</v>
+        <v>0.8986201669828481</v>
       </c>
       <c r="Z96">
         <v>-0.42214</v>
@@ -15501,7 +15500,7 @@
         <v>0.3000397917476457</v>
       </c>
       <c r="Y98">
-        <v>0.001796703668671322</v>
+        <v>0.001796703668671398</v>
       </c>
       <c r="Z98">
         <v>0.0003180492272973616</v>
@@ -15629,7 +15628,7 @@
         <v>509.1336368018719</v>
       </c>
       <c r="Y99">
-        <v>0.8986201669828482</v>
+        <v>0.8986201669828481</v>
       </c>
       <c r="Z99">
         <v>-0.42214</v>
@@ -15885,7 +15884,7 @@
         <v>0.4433864006516046</v>
       </c>
       <c r="Y101">
-        <v>0.002655094406143754</v>
+        <v>0.002655094406143865</v>
       </c>
       <c r="Z101">
         <v>0.000470000000000026</v>
@@ -16213,7 +16212,7 @@
         <v>509.5770232025235</v>
       </c>
       <c r="Y103">
-        <v>0.8986201669828482</v>
+        <v>0.8986201669828481</v>
       </c>
       <c r="Z103">
         <v>-0.42214</v>
@@ -16374,7 +16373,7 @@
         <v>258.3415811994036</v>
       </c>
       <c r="X104">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="Y104">
         <v>0.9285087859142152</v>
@@ -16455,7 +16454,7 @@
         <v>0.8053945846637904</v>
       </c>
       <c r="AY104">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="AZ104">
         <v>3.229065158943173E-06</v>
@@ -16502,7 +16501,7 @@
         <v>258.3415811994036</v>
       </c>
       <c r="X105">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="Y105">
         <v>0.9285087859142152</v>
@@ -16583,7 +16582,7 @@
         <v>0.8053945846637904</v>
       </c>
       <c r="AY105">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="AZ105">
         <v>3.229065158943173E-06</v>
@@ -16758,7 +16757,7 @@
         <v>258.3415811994036</v>
       </c>
       <c r="X107">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="Y107">
         <v>0.9285087859142152</v>
@@ -16839,7 +16838,7 @@
         <v>0.8053945846637904</v>
       </c>
       <c r="AY107">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="AZ107">
         <v>3.229065158943173E-06</v>
@@ -16886,7 +16885,7 @@
         <v>258.3415811994036</v>
       </c>
       <c r="X108">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="Y108">
         <v>0.9285087859142152</v>
@@ -16967,7 +16966,7 @@
         <v>0.8053945846637904</v>
       </c>
       <c r="AY108">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="AZ108">
         <v>3.229065158943173E-06</v>
@@ -17178,7 +17177,7 @@
         <v>258.3415811994036</v>
       </c>
       <c r="X110">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="Y110">
         <v>0.9285087859142152</v>
@@ -17259,7 +17258,7 @@
         <v>0.8053945846637904</v>
       </c>
       <c r="AY110">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="AZ110">
         <v>3.229065158943173E-06</v>
@@ -17342,7 +17341,7 @@
         <v>258.3415811994036</v>
       </c>
       <c r="X111">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="Y111">
         <v>0.9285087859142152</v>
@@ -17423,7 +17422,7 @@
         <v>0.8053945846637904</v>
       </c>
       <c r="AY111">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="AZ111">
         <v>3.229065158943173E-06</v>
@@ -17509,7 +17508,7 @@
         <v>348.6360723569057</v>
       </c>
       <c r="Y112">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="Z112">
         <v>-0.62826</v>
@@ -17637,7 +17636,7 @@
         <v>348.6360723569057</v>
       </c>
       <c r="Y113">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="Z113">
         <v>-0.62826</v>
@@ -17893,7 +17892,7 @@
         <v>348.6360723569057</v>
       </c>
       <c r="Y115">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="Z115">
         <v>-0.62826</v>
@@ -18021,7 +18020,7 @@
         <v>348.6360723569057</v>
       </c>
       <c r="Y116">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="Z116">
         <v>-0.62826</v>
@@ -18313,7 +18312,7 @@
         <v>348.6360723569057</v>
       </c>
       <c r="Y118">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="Z118">
         <v>-0.62826</v>
@@ -18477,7 +18476,7 @@
         <v>348.6360723569057</v>
       </c>
       <c r="Y119">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="Z119">
         <v>-0.62826</v>
@@ -18641,7 +18640,7 @@
         <v>348.2841468353619</v>
       </c>
       <c r="Y120">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="Z120">
         <v>-0.63452</v>
@@ -18769,7 +18768,7 @@
         <v>348.2841468353619</v>
       </c>
       <c r="Y121">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="Z121">
         <v>-0.63452</v>
@@ -19025,7 +19024,7 @@
         <v>348.2841468353619</v>
       </c>
       <c r="Y123">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="Z123">
         <v>-0.63452</v>
@@ -19153,7 +19152,7 @@
         <v>348.2841468353619</v>
       </c>
       <c r="Y124">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="Z124">
         <v>-0.63452</v>
@@ -19445,7 +19444,7 @@
         <v>348.2841468353619</v>
       </c>
       <c r="Y126">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="Z126">
         <v>-0.63452</v>
@@ -19609,7 +19608,7 @@
         <v>348.2841468353619</v>
       </c>
       <c r="Y127">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="Z127">
         <v>-0.63452</v>
@@ -19773,7 +19772,7 @@
         <v>399.1757624569898</v>
       </c>
       <c r="Y128">
-        <v>0.9121031846880719</v>
+        <v>0.9121031846880717</v>
       </c>
       <c r="Z128">
         <v>-0.42724</v>
@@ -19937,7 +19936,7 @@
         <v>399.3307718701594</v>
       </c>
       <c r="Y129">
-        <v>0.9117366165261983</v>
+        <v>0.9117366165261985</v>
       </c>
       <c r="Z129">
         <v>-0.42725</v>
@@ -20101,7 +20100,7 @@
         <v>396.0137056197053</v>
       </c>
       <c r="Y130">
-        <v>0.9152405684619559</v>
+        <v>0.9152405684619557</v>
       </c>
       <c r="Z130">
         <v>-0.43297</v>
@@ -20357,7 +20356,7 @@
         <v>1.46222110866511</v>
       </c>
       <c r="Y132">
-        <v>0.001510209848159972</v>
+        <v>0.001510209848159839</v>
       </c>
       <c r="Z132">
         <v>0.002579528025019302</v>
@@ -20485,7 +20484,7 @@
         <v>396.0137056197053</v>
       </c>
       <c r="Y133">
-        <v>0.9117366165261983</v>
+        <v>0.9117366165261985</v>
       </c>
       <c r="Z133">
         <v>-0.43297</v>
@@ -20613,7 +20612,7 @@
         <v>399.3307718701594</v>
       </c>
       <c r="Y134">
-        <v>0.9152405684619559</v>
+        <v>0.9152405684619557</v>
       </c>
       <c r="Z134">
         <v>-0.42724</v>
@@ -20741,7 +20740,7 @@
         <v>3.317066250454104</v>
       </c>
       <c r="Y135">
-        <v>0.003503951935757588</v>
+        <v>0.003503951935757144</v>
       </c>
       <c r="Z135">
         <v>0.005730000000000013</v>
@@ -20905,7 +20904,7 @@
         <v>399.1757624569898</v>
       </c>
       <c r="Y136">
-        <v>0.9121031846880719</v>
+        <v>0.9121031846880717</v>
       </c>
       <c r="Z136">
         <v>-0.42724</v>
@@ -21069,7 +21068,7 @@
         <v>396.0137056197053</v>
       </c>
       <c r="Y137">
-        <v>0.9152405684619559</v>
+        <v>0.9152405684619557</v>
       </c>
       <c r="Z137">
         <v>-0.43297</v>
@@ -21397,7 +21396,7 @@
         <v>394.7700073827853</v>
       </c>
       <c r="Y139">
-        <v>0.9189352045699101</v>
+        <v>0.9189352045699098</v>
       </c>
       <c r="Z139">
         <v>-0.42049</v>
@@ -21561,7 +21560,7 @@
         <v>395.0447647669184</v>
       </c>
       <c r="Y140">
-        <v>0.9186803150263008</v>
+        <v>0.918680315026301</v>
       </c>
       <c r="Z140">
         <v>-0.4182</v>
@@ -21633,13 +21632,13 @@
         <v>3.252552196190434</v>
       </c>
       <c r="AW140">
-        <v>6.16872233445734</v>
+        <v>6.168722334457344</v>
       </c>
       <c r="AX140">
         <v>0.8249747479429121</v>
       </c>
       <c r="AY140">
-        <v>5.540962677649041E-05</v>
+        <v>5.541013971222977E-05</v>
       </c>
       <c r="AZ140">
         <v>8.324370573602774E-06</v>
@@ -21761,13 +21760,13 @@
         <v>3.259817424403449</v>
       </c>
       <c r="AW141">
-        <v>6.02000105354917</v>
+        <v>6.020001053549171</v>
       </c>
       <c r="AX141">
         <v>0.8102504062428301</v>
       </c>
       <c r="AY141">
-        <v>0.08630534028122357</v>
+        <v>0.08630534035056479</v>
       </c>
       <c r="AZ141">
         <v>0.01297471649785743</v>
@@ -21817,7 +21816,7 @@
         <v>2.023923627295659</v>
       </c>
       <c r="Y142">
-        <v>0.0008858923614595406</v>
+        <v>0.000885892361459455</v>
       </c>
       <c r="Z142">
         <v>0.001688458573045026</v>
@@ -21889,13 +21888,13 @@
         <v>0.008640098133326122</v>
       </c>
       <c r="AW142">
-        <v>0.1734832443069166</v>
+        <v>0.1734832443069173</v>
       </c>
       <c r="AX142">
         <v>0.01717767273793536</v>
       </c>
       <c r="AY142">
-        <v>0.1124703115480443</v>
+        <v>0.1124703114682809</v>
       </c>
       <c r="AZ142">
         <v>0.01690823775253963</v>
@@ -22073,7 +22072,7 @@
         <v>398.1468407118916</v>
       </c>
       <c r="Y144">
-        <v>0.9189352045699101</v>
+        <v>0.9189352045699098</v>
       </c>
       <c r="Z144">
         <v>-0.41756</v>
@@ -22145,7 +22144,7 @@
         <v>3.26732226307799</v>
       </c>
       <c r="AW144">
-        <v>6.16872233445734</v>
+        <v>6.168722334457344</v>
       </c>
       <c r="AX144">
         <v>0.8249747479429121</v>
@@ -22201,7 +22200,7 @@
         <v>3.376833329106319</v>
       </c>
       <c r="Y145">
-        <v>0.00150525303476623</v>
+        <v>0.001505253034766008</v>
       </c>
       <c r="Z145">
         <v>0.002929999999999988</v>
@@ -22273,7 +22272,7 @@
         <v>0.01477006688755633</v>
       </c>
       <c r="AW145">
-        <v>0.2993530734796819</v>
+        <v>0.2993530734796863</v>
       </c>
       <c r="AX145">
         <v>0.02963938056770365</v>
@@ -22529,7 +22528,7 @@
         <v>395.0447647669184</v>
       </c>
       <c r="Y147">
-        <v>0.9186803150263008</v>
+        <v>0.918680315026301</v>
       </c>
       <c r="Z147">
         <v>-0.4182</v>
@@ -22601,13 +22600,13 @@
         <v>3.252552196190434</v>
       </c>
       <c r="AW147">
-        <v>6.16872233445734</v>
+        <v>6.168722334457344</v>
       </c>
       <c r="AX147">
         <v>0.8249747479429121</v>
       </c>
       <c r="AY147">
-        <v>5.540962677649041E-05</v>
+        <v>5.541013971222977E-05</v>
       </c>
       <c r="AZ147">
         <v>8.324370573602774E-06</v>
@@ -22693,7 +22692,7 @@
         <v>397.937113490653</v>
       </c>
       <c r="Y148">
-        <v>0.9181054280917456</v>
+        <v>0.9181054280917458</v>
       </c>
       <c r="Z148">
         <v>-0.42386</v>
@@ -23113,7 +23112,7 @@
         <v>1.739091054599433</v>
       </c>
       <c r="Y151">
-        <v>0.0001709870233621144</v>
+        <v>0.0001709870233619646</v>
       </c>
       <c r="Z151">
         <v>0.002463034191138656</v>
@@ -23241,7 +23240,7 @@
         <v>395.3599335342703</v>
       </c>
       <c r="Y152">
-        <v>0.9181054280917456</v>
+        <v>0.9181054280917458</v>
       </c>
       <c r="Z152">
         <v>-0.42751</v>
@@ -23497,7 +23496,7 @@
         <v>2.577179956382736</v>
       </c>
       <c r="Y154">
-        <v>0.0002533877270226581</v>
+        <v>0.0002533877270224361</v>
       </c>
       <c r="Z154">
         <v>0.003649999999999987</v>
@@ -23661,7 +23660,7 @@
         <v>397.937113490653</v>
       </c>
       <c r="Y155">
-        <v>0.9181054280917456</v>
+        <v>0.9181054280917458</v>
       </c>
       <c r="Z155">
         <v>-0.42386</v>
@@ -23993,7 +23992,8 @@
     <col min="79" max="79" width="21.7109375" customWidth="1"/>
     <col min="80" max="80" width="27.7109375" customWidth="1"/>
     <col min="81" max="82" width="19.7109375" customWidth="1"/>
-    <col min="83" max="84" width="21.7109375" customWidth="1"/>
+    <col min="83" max="83" width="22.7109375" customWidth="1"/>
+    <col min="84" max="84" width="21.7109375" customWidth="1"/>
     <col min="85" max="85" width="24.7109375" customWidth="1"/>
     <col min="86" max="86" width="20.7109375" customWidth="1"/>
     <col min="87" max="87" width="25.7109375" customWidth="1"/>
@@ -25250,25 +25250,25 @@
         <v>471.1024761564533</v>
       </c>
       <c r="CA2">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="CB2">
         <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="CD2">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="CE2">
         <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="CG2">
-        <v>0.8983800945344195</v>
+        <v>0.8983800945344197</v>
       </c>
       <c r="CH2">
         <v>-0.6436500000000001</v>
@@ -26116,25 +26116,25 @@
         <v>470.2148987279571</v>
       </c>
       <c r="CA3">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="CB3">
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="CD3">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="CE3">
         <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="CG3">
-        <v>0.9009836702181875</v>
+        <v>0.9009836702181871</v>
       </c>
       <c r="CH3">
         <v>-0.6278</v>
@@ -26620,25 +26620,25 @@
         <v>4.320339031660922</v>
       </c>
       <c r="IM3">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="IN3">
         <v>0</v>
       </c>
       <c r="IO3">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="IP3">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="IQ3">
         <v>0</v>
       </c>
       <c r="IR3">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="IS3">
-        <v>6.092529456502148</v>
+        <v>6.092529456502152</v>
       </c>
       <c r="IT3">
         <v>0.8180933906587335</v>
@@ -26662,25 +26662,25 @@
         <v>0.8180933906587335</v>
       </c>
       <c r="JA3">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="JB3">
         <v>0</v>
       </c>
       <c r="JC3">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="JD3">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="JE3">
         <v>0</v>
       </c>
       <c r="JF3">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="JG3">
-        <v>0.0002744597597279018</v>
+        <v>0.0002744596561727766</v>
       </c>
       <c r="JH3">
         <v>4.125479331190739E-05</v>
@@ -27833,25 +27833,25 @@
         <v>464.1656994814472</v>
       </c>
       <c r="CA5">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="CB5">
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="CD5">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="CE5">
         <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="CG5">
-        <v>0.9103492137890418</v>
+        <v>0.910349213789042</v>
       </c>
       <c r="CH5">
         <v>-0.6524</v>
@@ -29565,25 +29565,25 @@
         <v>463.3070130704092</v>
       </c>
       <c r="CA7">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="CB7">
         <v>0</v>
       </c>
       <c r="CC7">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="CD7">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="CE7">
         <v>0</v>
       </c>
       <c r="CF7">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="CG7">
-        <v>0.9130107380825342</v>
+        <v>0.9130107380825343</v>
       </c>
       <c r="CH7">
         <v>-0.63265</v>
@@ -29943,25 +29943,25 @@
         <v>49.89836136800944</v>
       </c>
       <c r="GW7">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="GX7">
         <v>0</v>
       </c>
       <c r="GY7">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="GZ7">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="HA7">
         <v>0</v>
       </c>
       <c r="HB7">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="HC7">
-        <v>7.039576060841661</v>
+        <v>7.039576060841658</v>
       </c>
       <c r="HD7">
         <v>1.888818053213638</v>
@@ -30006,25 +30006,25 @@
         <v>5.719278550771907</v>
       </c>
       <c r="HR7">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="HS7">
         <v>0</v>
       </c>
       <c r="HT7">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="HU7">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="HV7">
         <v>0</v>
       </c>
       <c r="HW7">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="HX7">
-        <v>6.845751254674232</v>
+        <v>6.845751254674229</v>
       </c>
       <c r="HY7">
         <v>1.888818053213638</v>
@@ -30416,19 +30416,19 @@
         <v>519.3439868310676</v>
       </c>
       <c r="CA8">
-        <v>0.8828862319664385</v>
+        <v>0.8828862319664386</v>
       </c>
       <c r="CB8">
-        <v>0.0005564512519408714</v>
+        <v>0.0005564512519409356</v>
       </c>
       <c r="CC8">
         <v>0.8822613416803795</v>
       </c>
       <c r="CD8">
-        <v>0.883275537494234</v>
+        <v>0.8832755374942342</v>
       </c>
       <c r="CE8">
-        <v>0.001014195813854535</v>
+        <v>0.001014195813854646</v>
       </c>
       <c r="CF8">
         <v>0.8822613416803795</v>
@@ -30920,25 +30920,25 @@
         <v>4.414053947725887</v>
       </c>
       <c r="IM8">
-        <v>5.968305900175767</v>
+        <v>5.968305900175768</v>
       </c>
       <c r="IN8">
-        <v>0.2175217501919892</v>
+        <v>0.2175217501919918</v>
       </c>
       <c r="IO8">
         <v>5.839869783829004</v>
       </c>
       <c r="IP8">
-        <v>6.214148878782978</v>
+        <v>6.214148878782982</v>
       </c>
       <c r="IQ8">
-        <v>0.374279094953974</v>
+        <v>0.3742790949539785</v>
       </c>
       <c r="IR8">
-        <v>6.214148878782978</v>
+        <v>6.214148878782982</v>
       </c>
       <c r="IS8">
-        <v>6.214148878782978</v>
+        <v>6.214148878782982</v>
       </c>
       <c r="IT8">
         <v>0.8052002664320415</v>
@@ -30962,10 +30962,10 @@
         <v>0.8292867540075833</v>
       </c>
       <c r="JA8">
-        <v>0.1427576575792919</v>
+        <v>0.142757657579335</v>
       </c>
       <c r="JB8">
-        <v>0.1262001936813264</v>
+        <v>0.1262001936813644</v>
       </c>
       <c r="JC8">
         <v>0.0001263049285381579</v>
@@ -31282,25 +31282,25 @@
         <v>516.8320086551948</v>
       </c>
       <c r="CA9">
-        <v>0.8868202904429675</v>
+        <v>0.8868202904429676</v>
       </c>
       <c r="CB9">
-        <v>0.0006861273808772429</v>
+        <v>0.0006861273808773205</v>
       </c>
       <c r="CC9">
-        <v>0.8864017617587303</v>
+        <v>0.8864017617587304</v>
       </c>
       <c r="CD9">
-        <v>0.8873827020535928</v>
+        <v>0.887382702053593</v>
       </c>
       <c r="CE9">
-        <v>0.000980940294862509</v>
+        <v>0.00098094029486262</v>
       </c>
       <c r="CF9">
-        <v>0.8864017617587303</v>
+        <v>0.8864017617587304</v>
       </c>
       <c r="CG9">
-        <v>0.8873827020535928</v>
+        <v>0.887382702053593</v>
       </c>
       <c r="CH9">
         <v>-0.4182665180287963</v>
@@ -32148,25 +32148,25 @@
         <v>510.2118432714877</v>
       </c>
       <c r="CA10">
-        <v>0.897339988293042</v>
+        <v>0.8973399882930422</v>
       </c>
       <c r="CB10">
-        <v>0.001754558436714102</v>
+        <v>0.001754558436714259</v>
       </c>
       <c r="CC10">
         <v>0.8961253313851429</v>
       </c>
       <c r="CD10">
-        <v>0.898607208397676</v>
+        <v>0.8986072083976763</v>
       </c>
       <c r="CE10">
-        <v>0.002481877012533107</v>
+        <v>0.002481877012533329</v>
       </c>
       <c r="CF10">
         <v>0.8961253313851429</v>
       </c>
       <c r="CG10">
-        <v>0.898607208397676</v>
+        <v>0.8986072083976763</v>
       </c>
       <c r="CH10">
         <v>-0.431888333642485</v>
@@ -32694,25 +32694,25 @@
         <v>0.7975432560152171</v>
       </c>
       <c r="JA10">
-        <v>0.08929601561580063</v>
+        <v>0.08929601561572438</v>
       </c>
       <c r="JB10">
-        <v>0.1289871045434945</v>
+        <v>0.1289871045433843</v>
       </c>
       <c r="JC10">
         <v>0</v>
       </c>
       <c r="JD10">
-        <v>0.1824562368405559</v>
+        <v>0.1824562368404001</v>
       </c>
       <c r="JE10">
-        <v>0.1824562368405559</v>
+        <v>0.1824562368404001</v>
       </c>
       <c r="JF10">
         <v>0</v>
       </c>
       <c r="JG10">
-        <v>0.1824562368405559</v>
+        <v>0.1824562368404001</v>
       </c>
       <c r="JH10">
         <v>0.01343023575581357</v>
@@ -34749,22 +34749,22 @@
         <v>0.9003328239623156</v>
       </c>
       <c r="CB13">
-        <v>0.001796703668671322</v>
+        <v>0.001796703668671398</v>
       </c>
       <c r="CC13">
-        <v>0.8986201669828482</v>
+        <v>0.8986201669828481</v>
       </c>
       <c r="CD13">
         <v>0.9012752613889919</v>
       </c>
       <c r="CE13">
-        <v>0.002655094406143754</v>
+        <v>0.002655094406143865</v>
       </c>
       <c r="CF13">
         <v>0.9012752613889919</v>
       </c>
       <c r="CG13">
-        <v>0.8986201669828482</v>
+        <v>0.8986201669828481</v>
       </c>
       <c r="CH13">
         <v>-0.4218368285653094</v>
@@ -35591,25 +35591,25 @@
         <v>258.3415811994036</v>
       </c>
       <c r="BT14">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="BU14">
         <v>0</v>
       </c>
       <c r="BV14">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="BW14">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="BX14">
         <v>0</v>
       </c>
       <c r="BY14">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="BZ14">
-        <v>349.3367774640581</v>
+        <v>349.3367774640582</v>
       </c>
       <c r="CA14">
         <v>0.9285087859142152</v>
@@ -36158,25 +36158,25 @@
         <v>0.8053945846637904</v>
       </c>
       <c r="JA14">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="JB14">
         <v>0</v>
       </c>
       <c r="JC14">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="JD14">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="JE14">
         <v>0</v>
       </c>
       <c r="JF14">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="JG14">
-        <v>2.149208276698482E-05</v>
+        <v>2.148943775032758E-05</v>
       </c>
       <c r="JH14">
         <v>3.229065158943173E-06</v>
@@ -36478,25 +36478,25 @@
         <v>348.6360723569057</v>
       </c>
       <c r="CA15">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="CB15">
         <v>0</v>
       </c>
       <c r="CC15">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="CD15">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="CE15">
         <v>0</v>
       </c>
       <c r="CF15">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="CG15">
-        <v>0.9315219999367933</v>
+        <v>0.9315219999367934</v>
       </c>
       <c r="CH15">
         <v>-0.62826</v>
@@ -37344,25 +37344,25 @@
         <v>348.2841468353619</v>
       </c>
       <c r="CA16">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="CB16">
         <v>0</v>
       </c>
       <c r="CC16">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="CD16">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="CE16">
         <v>0</v>
       </c>
       <c r="CF16">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="CG16">
-        <v>0.9316558715060762</v>
+        <v>0.931655871506076</v>
       </c>
       <c r="CH16">
         <v>-0.63452</v>
@@ -38213,22 +38213,22 @@
         <v>0.9124559032831663</v>
       </c>
       <c r="CB17">
-        <v>0.001510209848159972</v>
+        <v>0.001510209848159839</v>
       </c>
       <c r="CC17">
-        <v>0.9117366165261983</v>
+        <v>0.9117366165261985</v>
       </c>
       <c r="CD17">
-        <v>0.9152405684619559</v>
+        <v>0.9152405684619557</v>
       </c>
       <c r="CE17">
-        <v>0.003503951935757588</v>
+        <v>0.003503951935757144</v>
       </c>
       <c r="CF17">
-        <v>0.9121031846880719</v>
+        <v>0.9121031846880717</v>
       </c>
       <c r="CG17">
-        <v>0.9152405684619559</v>
+        <v>0.9152405684619557</v>
       </c>
       <c r="CH17">
         <v>-0.4281689532833496</v>
@@ -39079,22 +39079,22 @@
         <v>0.9181951905223948</v>
       </c>
       <c r="CB18">
-        <v>0.0008858923614595406</v>
+        <v>0.000885892361459455</v>
       </c>
       <c r="CC18">
         <v>0.9174299515351438</v>
       </c>
       <c r="CD18">
-        <v>0.9189352045699101</v>
+        <v>0.9189352045699098</v>
       </c>
       <c r="CE18">
-        <v>0.00150525303476623</v>
+        <v>0.001505253034766008</v>
       </c>
       <c r="CF18">
         <v>0.9174299515351438</v>
       </c>
       <c r="CG18">
-        <v>0.9186803150263008</v>
+        <v>0.918680315026301</v>
       </c>
       <c r="CH18">
         <v>-0.4188070483026498</v>
@@ -39580,25 +39580,25 @@
         <v>3.252552196190434</v>
       </c>
       <c r="IM18">
-        <v>6.02000105354917</v>
+        <v>6.020001053549171</v>
       </c>
       <c r="IN18">
-        <v>0.1734832443069166</v>
+        <v>0.1734832443069173</v>
       </c>
       <c r="IO18">
         <v>5.869369260977658</v>
       </c>
       <c r="IP18">
-        <v>6.16872233445734</v>
+        <v>6.168722334457344</v>
       </c>
       <c r="IQ18">
-        <v>0.2993530734796819</v>
+        <v>0.2993530734796863</v>
       </c>
       <c r="IR18">
         <v>5.869369260977658</v>
       </c>
       <c r="IS18">
-        <v>6.16872233445734</v>
+        <v>6.168722334457344</v>
       </c>
       <c r="IT18">
         <v>0.8102504062428301</v>
@@ -39622,10 +39622,10 @@
         <v>0.8249747479429121</v>
       </c>
       <c r="JA18">
-        <v>0.08630534028122357</v>
+        <v>0.08630534035056479</v>
       </c>
       <c r="JB18">
-        <v>0.1124703115480443</v>
+        <v>0.1124703114682809</v>
       </c>
       <c r="JC18">
         <v>4.555854032213438E-05</v>
@@ -39640,7 +39640,7 @@
         <v>0.1840715553985424</v>
       </c>
       <c r="JG18">
-        <v>5.540962677649041E-05</v>
+        <v>5.541013971222977E-05</v>
       </c>
       <c r="JH18">
         <v>0.01297471649785743</v>
@@ -39945,19 +39945,19 @@
         <v>0.9181942662559197</v>
       </c>
       <c r="CB19">
-        <v>0.0001709870233621144</v>
+        <v>0.0001709870233619646</v>
       </c>
       <c r="CC19">
-        <v>0.9181054280917456</v>
+        <v>0.9181054280917458</v>
       </c>
       <c r="CD19">
         <v>0.9183588158187682</v>
       </c>
       <c r="CE19">
-        <v>0.0002533877270226581</v>
+        <v>0.0002533877270224361</v>
       </c>
       <c r="CF19">
-        <v>0.9181054280917456</v>
+        <v>0.9181054280917458</v>
       </c>
       <c r="CG19">
         <v>0.9183588158187682</v>
